--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,15 +22,24 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>501075</t>
+  </si>
+  <si>
     <t>002906</t>
   </si>
   <si>
@@ -46,7 +55,7 @@
     <t>007501</t>
   </si>
   <si>
-    <t>501075</t>
+    <t>万家科创主题3年封闭运作灵活配置混合A</t>
   </si>
   <si>
     <t>南方中证500量化增强股票A</t>
@@ -64,7 +73,22 @@
     <t>万家科创主题3年封闭运作灵活配置混合C</t>
   </si>
   <si>
-    <t>万家科创主题3年封闭运作灵活配置混合A</t>
+    <t>16.72</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>78.84</t>
   </si>
   <si>
     <t>91.11</t>
@@ -73,7 +97,7 @@
     <t>94.34</t>
   </si>
   <si>
-    <t>78.84</t>
+    <t>3.67</t>
   </si>
   <si>
     <t>1.39</t>
@@ -82,7 +106,16 @@
     <t>2.44</t>
   </si>
   <si>
-    <t>3.67</t>
+    <t>0.6136</t>
+  </si>
+  <si>
+    <t>0.0835</t>
+  </si>
+  <si>
+    <t>0.0257</t>
+  </si>
+  <si>
+    <t>0.0227</t>
   </si>
 </sst>
 </file>
@@ -440,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,124 +495,163 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -1,153 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>501075</t>
-  </si>
-  <si>
-    <t>002906</t>
-  </si>
-  <si>
-    <t>002907</t>
-  </si>
-  <si>
-    <t>001351</t>
-  </si>
-  <si>
-    <t>010355</t>
-  </si>
-  <si>
-    <t>007501</t>
-  </si>
-  <si>
-    <t>万家科创主题3年封闭运作灵活配置混合A</t>
-  </si>
-  <si>
-    <t>南方中证500量化增强股票A</t>
-  </si>
-  <si>
-    <t>南方中证500量化增强股票C</t>
-  </si>
-  <si>
-    <t>诺安中证500指数增强A</t>
-  </si>
-  <si>
-    <t>诺安中证500指数增强C</t>
-  </si>
-  <si>
-    <t>万家科创主题3年封闭运作灵活配置混合C</t>
-  </si>
-  <si>
-    <t>16.72</t>
-  </si>
-  <si>
-    <t>6.01</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>78.84</t>
-  </si>
-  <si>
-    <t>91.11</t>
-  </si>
-  <si>
-    <t>94.34</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>0.6136</t>
-  </si>
-  <si>
-    <t>0.0835</t>
-  </si>
-  <si>
-    <t>0.0257</t>
-  </si>
-  <si>
-    <t>0.0227</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,190 +446,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -850,4 +851,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,17 +871,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -890,14 +911,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -906,13 +949,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,17 +1118,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1137,14 +1158,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.89</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1153,14 +1196,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1169,13 +1234,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,17 +1403,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1443,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.35</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1438,14 +1481,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -1454,14 +1519,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1470,13 +1557,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>3.35</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -566,6 +583,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1437,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1683,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +2192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601456-国联证券.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>1.57</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.35</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -583,6 +600,1544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013677</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1530,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1814,7 +3369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2060,7 +3615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2192,7 +3747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
